--- a/Data/session_data/Session_data.xlsx
+++ b/Data/session_data/Session_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3439723_ad_unsw_edu_au/Documents/Drosophila projects/Environmental enrichment/Mating experiment/Droso_social_env_behaviour/Data/session_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AD487DE-0B09-3A46-853A-B47F0ABBEA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3AD487DE-0B09-3A46-853A-B47F0ABBEA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F89FCBE2-0F8D-4C01-919B-1CAE00B2B8F2}"/>
   <bookViews>
-    <workbookView xWindow="-29850" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="16" xr2:uid="{39D9B4F4-6527-4A05-B8F1-8A8783E45DF9}"/>
+    <workbookView xWindow="-29850" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{39D9B4F4-6527-4A05-B8F1-8A8783E45DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Run_register" sheetId="1" r:id="rId1"/>
@@ -25529,7 +25529,7 @@
   </sheetPr>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -51617,7 +51617,7 @@
   </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
@@ -53976,7 +53976,7 @@
   </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
@@ -56329,8 +56329,8 @@
   </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I86"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58662,7 +58662,7 @@
         <v>242</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="17"/>
@@ -58686,7 +58686,7 @@
   </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
